--- a/project/uploads/93/split_output/3定位、基准.xlsx
+++ b/project/uploads/93/split_output/3定位、基准.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907276E8-0C88-4102-B498-B8CEC95E5B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{892B50C1-7050-4D12-8D04-1FC001C4C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E2C9B991-43D5-4EBF-98A7-0B2E12C53C72}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{475F89C1-D801-4FA5-8B36-7E660D3F5C7D}"/>
   </bookViews>
   <sheets>
     <sheet name="3定位、基准" sheetId="1" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
         <xdr:cNvPr id="2" name="Picture 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D1F0F9-9082-460B-BE32-FF50537D6567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB00813-7BDC-46D4-8A9D-65CE4CA26F88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,8 +2381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1293495" y="33278445"/>
-          <a:ext cx="2657475" cy="1689735"/>
+          <a:off x="1292225" y="33804225"/>
+          <a:ext cx="2657475" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2416,7 +2416,7 @@
         <xdr:cNvPr id="3" name="组合 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA13515-937C-4304-991E-09B7D2C5823D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1625D58F-CDF7-4008-97B0-44B919B6BA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,8 +2424,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3998595" y="33249870"/>
-          <a:ext cx="1819275" cy="1727835"/>
+          <a:off x="3997325" y="33775650"/>
+          <a:ext cx="1819275" cy="1666875"/>
           <a:chOff x="3996418" y="15240000"/>
           <a:chExt cx="1823356" cy="1595416"/>
         </a:xfrm>
@@ -2435,7 +2435,7 @@
           <xdr:cNvPr id="4" name="Picture 123">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB96B09-463D-0757-563F-262A93EC1612}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBF4747-875B-162A-188C-C0509A9B4251}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2472,7 +2472,7 @@
           <xdr:cNvPr id="5" name="矩形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49BD66B0-44EC-65E5-70FB-A70DFEB6DE07}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E89653-E07B-A77C-5954-137D60AFB987}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2534,7 +2534,7 @@
         <xdr:cNvPr id="6" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216B7D93-DFBA-48E6-9E78-04B5F2A3AAC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34E2A0A-9BC0-4FD4-A425-8BF896E2EF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,8 +2551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4932045" y="38094285"/>
-          <a:ext cx="0" cy="803989"/>
+          <a:off x="4930775" y="38439725"/>
+          <a:ext cx="0" cy="773509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,15 +2585,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>662</xdr:rowOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="CheckBox1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B021B8FE-8E88-44A3-8024-F1BA5E0EE1F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E00CB94-C2E7-4F46-960F-EEA80F499F93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2616,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426845" y="18611850"/>
+          <a:off x="1425575" y="19081750"/>
           <a:ext cx="152400" cy="179732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2658,7 +2658,7 @@
         <xdr:cNvPr id="8" name="CheckBox3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DD31E7-521F-4FA4-9495-F8298047BBA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64126F81-0F70-4C4E-A53A-62586D80EFCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,8 +2681,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1864995" y="3028950"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1863725" y="3105150"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,7 +2723,7 @@
         <xdr:cNvPr id="9" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40453692-ADC6-4B68-8783-A3740277713C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E678BD9-70EA-4940-90E0-6FF64A9AF48B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,8 +2746,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3760280" y="3820188"/>
-          <a:ext cx="152400" cy="180312"/>
+          <a:off x="3759010" y="3916708"/>
+          <a:ext cx="152400" cy="185392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,7 +2788,7 @@
         <xdr:cNvPr id="10" name="CheckBox10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469CEE58-C6DD-40D3-BD02-B6BA861D4527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0A6AAC-4257-4C1E-8730-16D768DFFE69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,8 +2811,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2868783" y="3828757"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="2867513" y="3925277"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2853,7 +2853,7 @@
         <xdr:cNvPr id="11" name="CheckBox11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988BD11B-F571-4C0F-9224-8FCD5FAF6DA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFC1105-EB86-4CE6-8259-BEAF863066E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,8 +2876,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1826895" y="3821430"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1825625" y="3917950"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,7 +2918,7 @@
         <xdr:cNvPr id="12" name="CheckBox12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB77D83-B19F-4C18-A760-41EBCCFFC1E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A3BDBD-0688-4477-9C9A-1663DCEC46F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,8 +2941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2854129" y="15809888"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="2852859" y="16213748"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,7 +2983,7 @@
         <xdr:cNvPr id="13" name="CheckBox13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCFFA87-7C0C-4460-8555-D9090813C0C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6988F7C-A281-4668-A463-160C44FB3371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,8 +3006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1817370" y="15807690"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1816100" y="16211550"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3048,7 +3048,7 @@
         <xdr:cNvPr id="14" name="CheckBox17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E6D3F6-DB22-4B51-A755-1CBAF893C8AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECBDB0A-F0D5-414E-A331-0E05BB8FA993}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836420" y="15005685"/>
+          <a:off x="1835150" y="15389225"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3106,14 +3106,14 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>4288790</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>194917</xdr:rowOff>
+      <xdr:rowOff>202537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494880EE-51B4-4739-8C44-E4825B54E0E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07558FB-31F7-4F2A-BD43-414FAC426536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,8 +3136,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5401310" y="3820160"/>
-          <a:ext cx="152400" cy="177137"/>
+          <a:off x="5400040" y="3916680"/>
+          <a:ext cx="152400" cy="184757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3178,7 +3178,7 @@
         <xdr:cNvPr id="16" name="CheckBox11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDEEC97-B006-4780-B894-F0CF885BBA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780FDC83-67EE-4875-9FB3-F7DEB8822C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,8 +3201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1845945" y="3444240"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1844675" y="3530600"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="17" name="CheckBox9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8363799-090D-4D3B-8140-78326C7087A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48C25DB-5629-43C9-8B95-CCF19D2ACB02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3266,8 +3266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6412230" y="3805555"/>
-          <a:ext cx="152400" cy="180340"/>
+          <a:off x="6410960" y="3896995"/>
+          <a:ext cx="152400" cy="185420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,7 +3299,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>34290</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>95885</xdr:rowOff>
     </xdr:to>
@@ -3308,7 +3308,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AAE71F-6DFB-4697-9C26-78DFF0EE3A20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C1F4C8-E1A0-4D03-AA1E-9AE9F22FF92E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,8 +3324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8684895" y="2769870"/>
-          <a:ext cx="3606165" cy="4100195"/>
+          <a:off x="8683625" y="2835910"/>
+          <a:ext cx="3606165" cy="4206875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3356,7 +3356,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E381778E-83A2-4C57-93D5-639593C2BA7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB5FB04-281B-4D42-9B4C-8CCE431C8458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,8 +3372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1321435" y="24982805"/>
-          <a:ext cx="3491865" cy="2198370"/>
+          <a:off x="1320165" y="25592405"/>
+          <a:ext cx="3491865" cy="2254250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3404,7 +3404,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E512C254-5F10-45E9-ACE8-85C25F5712BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86229E29-F29C-440D-8797-36562AEE0870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,8 +3420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4892040" y="25218390"/>
-          <a:ext cx="2821305" cy="1732280"/>
+          <a:off x="4890770" y="25833070"/>
+          <a:ext cx="2821305" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3443,7 +3443,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>492760</xdr:colOff>
+      <xdr:colOff>549910</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>109855</xdr:rowOff>
     </xdr:to>
@@ -3452,7 +3452,7 @@
         <xdr:cNvPr id="21" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B65D22-5B39-4C60-9658-97BA66FEAEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770C8CCE-720A-4CCC-BBB1-3474B3C8FF14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,8 +3468,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900035" y="186055"/>
-          <a:ext cx="4220845" cy="2499360"/>
+          <a:off x="7898765" y="186055"/>
+          <a:ext cx="4220845" cy="2565400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,7 +3500,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CCFA7E-06EA-487D-88D8-003E13893B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF78F273-A8F5-46D0-AD6A-E62B99F2213A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,8 +3516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3021330" y="28753435"/>
-          <a:ext cx="949325" cy="1587500"/>
+          <a:off x="3020060" y="29441775"/>
+          <a:ext cx="949325" cy="1526540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3548,7 +3548,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9021DA8F-1E6F-4D14-AEBA-DB83D32971E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BF3BAC-4F8A-4A47-B531-FE946CE01EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3564,8 +3564,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5397500" y="4820285"/>
-          <a:ext cx="2273300" cy="2536825"/>
+          <a:off x="5396230" y="4942205"/>
+          <a:ext cx="2273300" cy="2597785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3596,7 +3596,7 @@
         <xdr:cNvPr id="24" name="图片 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E3495D-FC8C-4086-AE62-1CE2A28C78FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E2765F-5D1D-4814-A177-E85D62C3981E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,8 +3612,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537970" y="8164195"/>
-          <a:ext cx="5623560" cy="3735705"/>
+          <a:off x="1536700" y="8367395"/>
+          <a:ext cx="5623560" cy="3832225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3644,7 +3644,7 @@
         <xdr:cNvPr id="25" name="文本框 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B689BA-0DE1-4F07-B664-360B06611D13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F5F829-0CCE-4AF2-825C-7A400C19D50B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,8 +3652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1529715" y="7702550"/>
-          <a:ext cx="4953000" cy="357505"/>
+          <a:off x="1528445" y="7895590"/>
+          <a:ext cx="4953000" cy="367665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3797,7 +3797,7 @@
         <xdr:cNvPr id="26" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3A80BD-F674-40F2-A4B3-E7CD8FC4693F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E556F7E-C058-472E-84BF-719AC69C448C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,8 +3813,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1926590" y="11911965"/>
-          <a:ext cx="4504690" cy="2642870"/>
+          <a:off x="1925320" y="12211685"/>
+          <a:ext cx="4504690" cy="2713990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,7 +3845,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3FB4E3-6918-43D4-B1B2-163F330C3F34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8553E178-5A19-4164-AF60-5FF0FFF13669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,8 +3861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1570990" y="16415385"/>
-          <a:ext cx="5447030" cy="1375410"/>
+          <a:off x="1569720" y="16834485"/>
+          <a:ext cx="5447030" cy="1410970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3893,7 +3893,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74195F21-6325-4FB5-8C9F-EA6A39F08100}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB59AF4-CEFC-4CE4-BAD5-D23ECB980838}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3909,8 +3909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4501515" y="20587335"/>
-          <a:ext cx="2484120" cy="1470660"/>
+          <a:off x="4500245" y="21108035"/>
+          <a:ext cx="2484120" cy="1506220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3941,7 +3941,7 @@
         <xdr:cNvPr id="29" name="图片 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087F5358-2903-4345-8E37-87EB7D656F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A0E58C-F337-4BF5-9C1B-DE332BD5E998}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,8 +3957,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1826895" y="30874335"/>
-          <a:ext cx="4159250" cy="1704975"/>
+          <a:off x="1825625" y="31489015"/>
+          <a:ext cx="4159250" cy="1636395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3989,7 +3989,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991668B7-867C-4E12-B2F1-ACAEDBDBD340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802D98E2-2ED6-4717-AD82-7F2611A72057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,8 +4005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1769745" y="5050790"/>
-          <a:ext cx="3000375" cy="2084070"/>
+          <a:off x="1768475" y="5177790"/>
+          <a:ext cx="3000375" cy="2134870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3D647D-E279-4C6D-B473-3CB85EC10612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4E01A2-7500-463D-883F-8AF0AC92F17D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4053,8 +4053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1455420" y="20605115"/>
-          <a:ext cx="1847215" cy="1555115"/>
+          <a:off x="1454150" y="21125815"/>
+          <a:ext cx="1847215" cy="1595755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4080,7 +4080,7 @@
         <xdr:cNvPr id="32" name="文本框 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AA7B5C-1F46-488C-94C0-CAE92A665BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898BD63-7CBB-4DAC-8233-7A4110976FA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4088,7 +4088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1417320" y="22263735"/>
+          <a:off x="1416050" y="22825075"/>
           <a:ext cx="1809115" cy="453390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4154,7 +4154,7 @@
         <xdr:cNvPr id="33" name="文本框 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C15A94F-34B9-4E1D-AA9B-FF428B8FAEFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B1D729-8685-4FDF-A9F0-99C303A2A770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4668520" y="22285960"/>
+          <a:off x="4667250" y="22847300"/>
           <a:ext cx="3122930" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4335,7 +4335,7 @@
         <xdr:cNvPr id="34" name="图片 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7F4A35-4A06-4A15-AE0F-D51DE8A4CB71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F9E16E-4298-4842-8370-BF8717138F60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,8 +4351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1455420" y="937895"/>
-          <a:ext cx="5286375" cy="1283335"/>
+          <a:off x="1454150" y="958215"/>
+          <a:ext cx="5286375" cy="1318895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9963,7 +9963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AE0877-E995-4B40-BB84-4DF05015B623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F24E66-82AB-4FE6-AF43-824FE3871AB1}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9973,13 +9973,13 @@
       <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
     <col min="2" max="2" width="86.5" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -10008,62 +10008,62 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="13"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="7"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" s="15" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
@@ -10071,341 +10071,341 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="22"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="23"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="23"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="23"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="23"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="23"/>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="23"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="23"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="23"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="23"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="23"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="23"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="23"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="23"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="23"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="23"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="23"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="23"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="23"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="23"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="23"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="23"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="23"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="23"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="23"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="23"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="23"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="23"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="23"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="23"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="23"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="23"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="23"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="23"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="23"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
       <c r="B61" s="23"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="23"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="23"/>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="23"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="23"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="23"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="23"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="23"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="23"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="23"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
       <c r="B72" s="23"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="23"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="23"/>
     </row>
-    <row r="75" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="25"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="25"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="25"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
       <c r="B86" s="25"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="22"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="22"/>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="22"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="22"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="22"/>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="A93" s="26"/>
       <c r="B93" s="27"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>24</v>
       </c>
@@ -10421,131 +10421,131 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
       <c r="B98" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
       <c r="B102" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
       <c r="B103" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
       <c r="B104" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="B105" s="31"/>
     </row>
-    <row r="106" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
       <c r="B106" s="32"/>
     </row>
-    <row r="107" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="32"/>
     </row>
-    <row r="108" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="32"/>
     </row>
-    <row r="109" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="32"/>
     </row>
-    <row r="110" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
       <c r="B110" s="32"/>
     </row>
-    <row r="111" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
       <c r="B111" s="32"/>
     </row>
-    <row r="112" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
       <c r="B112" s="32"/>
     </row>
-    <row r="113" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="32"/>
     </row>
-    <row r="114" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
       <c r="B114" s="32"/>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
       <c r="B115" s="32"/>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="33"/>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="34"/>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
       <c r="B120" s="36" t="s">
         <v>38</v>
@@ -10557,81 +10557,81 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" s="39"/>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
       <c r="B124" s="40"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
       <c r="B125" s="40"/>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
       <c r="B126" s="40"/>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="40"/>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
       <c r="B128" s="40"/>
     </row>
-    <row r="129" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="40"/>
     </row>
-    <row r="130" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
       <c r="B130" s="40"/>
     </row>
-    <row r="131" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="40"/>
     </row>
-    <row r="132" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="40"/>
     </row>
-    <row r="133" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="40"/>
     </row>
-    <row r="134" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="40"/>
     </row>
-    <row r="135" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="41"/>
     </row>
-    <row r="136" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="37"/>
     </row>
-    <row r="137" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="42"/>
     </row>
-    <row r="138" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
       <c r="B138" s="32"/>
     </row>
-    <row r="139" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="33"/>
     </row>
-    <row r="140" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="43"/>
     </row>
@@ -10643,7 +10643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="19" t="s">
         <v>43</v>
@@ -10686,7 +10686,7 @@
       <c r="A151" s="17"/>
       <c r="B151" s="22"/>
     </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" s="15" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="45"/>
     </row>
@@ -10742,7 +10742,7 @@
       <c r="A164" s="17"/>
       <c r="B164" s="22"/>
     </row>
-    <row r="165" spans="1:3" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" s="15" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="46"/>
       <c r="B165" s="45"/>
     </row>
@@ -10790,7 +10790,7 @@
       <c r="A175" s="17"/>
       <c r="B175" s="22"/>
     </row>
-    <row r="176" spans="1:3" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" s="15" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="46"/>
       <c r="B176" s="26"/>
       <c r="C176"/>
@@ -10815,7 +10815,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{F3D66819-43E0-4571-90B4-D28D1C76B94F}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{6D01C5A0-790A-4E5D-9D2B-03658D51B81F}"/>
   </hyperlinks>
   <pageMargins left="0.43" right="0.24" top="0.48" bottom="0.3" header="0.5" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
